--- a/test_resources/TestTarget1.xlsx
+++ b/test_resources/TestTarget1.xlsx
@@ -356,7 +356,7 @@
   <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
